--- a/Dbtransaction.xlsx
+++ b/Dbtransaction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JTOSO\Documents\Curso\SapTraining\sap-training-modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B689EA-3F04-4036-BF4F-55BBFD109311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAAA1A6-FBD2-4A4B-98B8-CAD7C751D647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F7FF0447-7988-4902-B26D-C83EF9D09B04}"/>
   </bookViews>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0E37E2-BDDD-41F0-9CFE-A73C11EA3279}">
   <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A1:A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,8 +1275,8 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
-        <f>CONCATENATE("        nombre: '",Detalles!B2,"lt12',")</f>
-        <v xml:space="preserve">        nombre: 'lt12lt12',</v>
+        <f>CONCATENATE("        nombre: '",Detalles!B2,"',")</f>
+        <v xml:space="preserve">        nombre: 'lt12',</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">

--- a/Dbtransaction.xlsx
+++ b/Dbtransaction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JTOSO\Documents\Curso\SapTraining\sap-training-modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAAA1A6-FBD2-4A4B-98B8-CAD7C751D647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A7E67-DD88-4F1C-A4E9-9D96EF10D9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F7FF0447-7988-4902-B26D-C83EF9D09B04}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F7FF0447-7988-4902-B26D-C83EF9D09B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Detalles" sheetId="2" r:id="rId1"/>
@@ -118,15 +118,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,22 +140,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -488,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466F9118-0F20-45AD-9948-B07D250BF8C6}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,756 +526,765 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D78" s="3"/>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D79" s="3"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D80" s="3"/>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D81" s="3"/>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D82" s="3"/>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D83" s="3"/>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D84" s="3"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D85" s="3"/>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D86" s="3"/>
+      <c r="D86" s="2"/>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D87" s="3"/>
+      <c r="D87" s="2"/>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D88" s="3"/>
+      <c r="D88" s="2"/>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D89" s="3"/>
+      <c r="D89" s="2"/>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D90" s="3"/>
+      <c r="D90" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1261,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0E37E2-BDDD-41F0-9CFE-A73C11EA3279}">
   <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
